--- a/BackTest/2020-01-13 BackTest BHP.xlsx
+++ b/BackTest/2020-01-13 BackTest BHP.xlsx
@@ -7455,14 +7455,12 @@
         <v>945.4133333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>938.6</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
         <v>938.6</v>
       </c>
@@ -7584,14 +7582,12 @@
         <v>944.9066666666665</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>938.6</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>938.6</v>
       </c>
@@ -7633,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>939</v>
+        <v>938.6</v>
       </c>
       <c r="K206" t="n">
         <v>938.6</v>
@@ -7676,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K207" t="n">
         <v>938.6</v>
@@ -7719,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K208" t="n">
         <v>938.6</v>
@@ -7799,14 +7795,12 @@
         <v>944.1566666666665</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>943</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>938.6</v>
       </c>
@@ -7842,14 +7836,12 @@
         <v>944.0566666666666</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>943</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>938.6</v>
       </c>
@@ -7885,14 +7877,12 @@
         <v>943.9566666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>943</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>938.6</v>
       </c>
@@ -7928,14 +7918,12 @@
         <v>943.8566666666666</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>943</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>938.6</v>
       </c>
@@ -8466,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
@@ -8474,11 +8462,11 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>1.001818666098444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -8507,11 +8495,17 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +8536,17 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8577,11 +8577,17 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8612,13 +8618,19 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M230" t="n">
-        <v>1</v>
+        <v>1.001818666098444</v>
       </c>
     </row>
     <row r="231">
@@ -8647,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -11972,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
@@ -12077,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -14944,13 +14956,17 @@
         <v>946.3366666666666</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>943</v>
+      </c>
+      <c r="K411" t="n">
+        <v>943</v>
+      </c>
       <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
@@ -14985,8 +15001,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>943</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15020,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>943</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16414,17 +16442,13 @@
         <v>943.6116666666665</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>943</v>
-      </c>
-      <c r="K453" t="n">
-        <v>943</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
@@ -16459,14 +16483,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>943</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16500,14 +16518,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>943</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16570,17 +16582,13 @@
         <v>943.3833333333331</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K457" t="n">
-        <v>941.1</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
@@ -16609,22 +16617,14 @@
         <v>943.3516666666663</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K458" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16652,22 +16652,14 @@
         <v>943.3199999999997</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K459" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16695,17 +16687,13 @@
         <v>943.2883333333331</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K460" t="n">
-        <v>941.1</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
@@ -16734,22 +16722,14 @@
         <v>943.2566666666663</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K461" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16777,22 +16757,14 @@
         <v>943.2249999999997</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K462" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16890,17 +16862,13 @@
         <v>943.1616666666663</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>943</v>
-      </c>
-      <c r="K465" t="n">
-        <v>943</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
@@ -16935,14 +16903,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>943</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16976,14 +16938,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>943</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -20056,17 +20012,13 @@
         <v>943.0499999999997</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K555" t="n">
-        <v>941.1</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
@@ -20095,22 +20047,14 @@
         <v>942.9849999999998</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K556" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20138,22 +20082,14 @@
         <v>942.953333333333</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K557" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20181,17 +20117,13 @@
         <v>942.888333333333</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K558" t="n">
-        <v>941.1</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
@@ -20220,22 +20152,14 @@
         <v>942.8566666666663</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="K559" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20263,22 +20187,14 @@
         <v>942.888333333333</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>943</v>
-      </c>
-      <c r="K560" t="n">
-        <v>941.1</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20306,17 +20222,13 @@
         <v>942.888333333333</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>943</v>
-      </c>
-      <c r="K561" t="n">
-        <v>943</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
@@ -20345,22 +20257,14 @@
         <v>942.888333333333</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>943</v>
-      </c>
-      <c r="K562" t="n">
-        <v>943</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20388,22 +20292,14 @@
         <v>942.888333333333</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>943</v>
-      </c>
-      <c r="K563" t="n">
-        <v>943</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20431,17 +20327,13 @@
         <v>942.888333333333</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>943</v>
-      </c>
-      <c r="K564" t="n">
-        <v>943</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
@@ -20476,14 +20368,8 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>943</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20517,14 +20403,8 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>943</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20558,14 +20438,8 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>943</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20599,14 +20473,8 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>943</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20640,14 +20508,8 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>943</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20681,14 +20543,8 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>943</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20722,14 +20578,8 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>943</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20763,14 +20613,8 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>943</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20804,14 +20648,8 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>943</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20845,14 +20683,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>943</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20883,17 +20715,11 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>943</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20924,17 +20750,11 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>943</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20968,14 +20788,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>943</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21009,14 +20823,8 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>943</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21050,14 +20858,8 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>943</v>
-      </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21091,14 +20893,8 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>943</v>
-      </c>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21132,14 +20928,8 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>943</v>
-      </c>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21173,14 +20963,8 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>943</v>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21214,14 +20998,8 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>943</v>
-      </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21252,17 +21030,11 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>943</v>
-      </c>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21296,14 +21068,8 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>943</v>
-      </c>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21337,14 +21103,8 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>943</v>
-      </c>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21378,14 +21138,8 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>943</v>
-      </c>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21419,14 +21173,8 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>943</v>
-      </c>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21460,14 +21208,8 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>943</v>
-      </c>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21498,17 +21240,11 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>943</v>
-      </c>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +21278,8 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="n">
-        <v>943</v>
-      </c>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21583,14 +21313,8 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="n">
-        <v>943</v>
-      </c>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21624,14 +21348,8 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="n">
-        <v>943</v>
-      </c>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21665,14 +21383,8 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="n">
-        <v>943</v>
-      </c>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21706,14 +21418,8 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="n">
-        <v>943</v>
-      </c>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21747,14 +21453,8 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="n">
-        <v>943</v>
-      </c>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21788,14 +21488,8 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="n">
-        <v>943</v>
-      </c>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21829,14 +21523,8 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="n">
-        <v>943</v>
-      </c>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21870,14 +21558,8 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="n">
-        <v>943</v>
-      </c>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21911,14 +21593,8 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="n">
-        <v>943</v>
-      </c>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21952,14 +21628,8 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="n">
-        <v>943</v>
-      </c>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21993,14 +21663,8 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="n">
-        <v>943</v>
-      </c>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22034,14 +21698,8 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="n">
-        <v>943</v>
-      </c>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22075,14 +21733,8 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="n">
-        <v>943</v>
-      </c>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22113,19 +21765,13 @@
         <v>0</v>
       </c>
       <c r="I605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="n">
-        <v>943</v>
-      </c>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
-        <v>1.001362672322375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -22189,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
@@ -22259,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
@@ -22294,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
@@ -22329,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
@@ -22469,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
@@ -22854,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
@@ -22889,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
@@ -22959,7 +22605,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
@@ -22994,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
@@ -23029,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
@@ -23169,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
@@ -23239,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
@@ -23274,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest BHP.xlsx
+++ b/BackTest/2020-01-13 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2200,7 +2200,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>15768.04347959</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>15768.04347959</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>15768.04347959</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>16469.34347959</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>20031.88817959</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>23184.58817958999</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>23318.88817958999</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>23608.68817958999</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>23608.68817958999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>23608.68817958999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>23594.58817958999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8998,11 +8998,17 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>938.6</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9037,17 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>939</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,15 +9076,17 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>939</v>
       </c>
-      <c r="J263" t="n">
-        <v>939</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,17 +9115,15 @@
         <v>23704.20767958998</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>939</v>
       </c>
-      <c r="J264" t="n">
-        <v>939</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9142,17 +9154,15 @@
         <v>23832.20767958998</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>938.6</v>
       </c>
-      <c r="J265" t="n">
-        <v>939</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9183,11 +9193,17 @@
         <v>24139.60767958999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>939</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +9232,17 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>940</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9249,11 +9271,17 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>943</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9282,11 +9310,17 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>943</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9319,7 +9353,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9352,7 +9390,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9385,7 +9427,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9464,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9451,7 +9501,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9484,7 +9538,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9517,7 +9575,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9550,7 +9612,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9583,7 +9649,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9616,7 +9686,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9649,7 +9723,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9682,7 +9760,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9715,7 +9797,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9748,7 +9834,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9781,7 +9871,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9814,7 +9908,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9847,7 +9945,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9880,7 +9982,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9913,7 +10019,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9946,7 +10056,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9979,7 +10093,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10012,7 +10130,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10045,7 +10167,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10078,7 +10204,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10111,7 +10241,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10144,7 +10278,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10177,7 +10315,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10210,7 +10352,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10243,7 +10389,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10276,7 +10426,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10309,7 +10463,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10342,7 +10500,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10375,7 +10537,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10408,7 +10574,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10441,7 +10611,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10474,7 +10648,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10507,7 +10685,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10536,15 +10718,15 @@
         <v>26211.80767958999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>945</v>
-      </c>
-      <c r="J307" t="n">
-        <v>945</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10576,12 +10758,10 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>945</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -10615,12 +10795,10 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>945</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L309" t="n">
@@ -10654,9 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>945</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +10869,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>945</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,9 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>945</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +10943,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>945</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,9 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>945</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>945</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,9 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>945</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +11091,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>945</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>945</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>945</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>945</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,9 +11239,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>945</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>945</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>945</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +11350,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>945</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>945</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,9 +11424,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>945</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>945</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,9 +11498,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>945</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>945</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,9 +11572,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>945</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +11609,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>945</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +11646,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>945</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,9 +11683,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>945</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +11720,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>945</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,9 +11757,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>945</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +11794,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>945</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,9 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>945</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +11868,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>945</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11785,9 +11905,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>945</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,9 +11942,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>945</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11863,9 +11979,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>945</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,9 +12016,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>945</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,9 +12053,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>945</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,9 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>945</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,9 +12127,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>945</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,9 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>945</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,9 +12201,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>945</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,9 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>945</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,9 +12275,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>945</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,9 +12312,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>945</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,9 +12349,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>945</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,9 +12386,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>945</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,9 +12423,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>945</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,9 +12460,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>945</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,9 +12497,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>945</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,9 +12534,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>945</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,9 +12571,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>945</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,9 +12608,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>945</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,9 +12645,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>945</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +12682,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>945</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,9 +12719,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>945</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12682,9 +12756,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>945</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,9 +12793,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>945</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,9 +12830,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>945</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,9 +12867,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>945</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12838,9 +12904,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>945</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12877,9 +12941,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>945</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,9 +12978,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>945</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12955,9 +13015,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>945</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,9 +13052,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>945</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,9 +13089,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>945</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13072,9 +13126,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>945</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,9 +13163,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>945</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,9 +13200,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>945</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,9 +13237,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>945</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,9 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>945</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,9 +13311,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>945</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13306,9 +13348,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>945</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,9 +13385,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>945</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,9 +13422,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>945</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,9 +13459,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>945</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13462,9 +13496,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>945</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13501,9 +13533,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>945</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13540,9 +13570,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>945</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13579,9 +13607,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>945</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13618,9 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>945</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13657,9 +13681,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>945</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13696,9 +13718,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>945</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13735,9 +13755,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>945</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13774,9 +13792,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>945</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13813,9 +13829,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>945</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13852,9 +13866,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>945</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13891,9 +13903,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>945</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13930,9 +13940,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>945</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13969,9 +13977,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>945</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14008,9 +14014,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>945</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14047,9 +14051,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>945</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14086,9 +14088,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>945</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14125,9 +14125,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>945</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14164,9 +14162,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>945</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,9 +14199,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>945</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,9 +14236,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>945</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14281,9 +14273,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>945</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,9 +14310,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>945</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14359,9 +14347,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>945</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14398,9 +14384,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>945</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14437,9 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>945</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14476,9 +14458,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>945</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14515,9 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>945</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,9 +14532,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>945</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14593,9 +14569,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>945</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14632,9 +14606,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>945</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14671,9 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>945</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,9 +14680,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>945</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14749,9 +14717,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>945</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14788,9 +14754,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>945</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,9 +14791,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>945</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,9 +14828,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>945</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14905,9 +14865,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>945</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,9 +14902,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>945</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,9 +14939,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>945</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15022,9 +14976,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>945</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15061,9 +15013,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>945</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,9 +15050,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>945</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15139,9 +15087,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>945</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15178,9 +15124,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>945</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15217,9 +15161,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>945</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15256,9 +15198,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>945</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,9 +15235,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>945</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15334,9 +15272,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>945</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15373,9 +15309,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>945</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,9 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>945</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,9 +15383,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>945</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,9 +15420,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>945</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,9 +15457,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>945</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15568,9 +15494,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>945</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,9 +15531,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>945</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,9 +15568,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>945</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,9 +15605,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>945</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,9 +15642,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>945</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,9 +15679,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>945</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,9 +15716,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>945</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +15753,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>945</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,9 +15790,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>945</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,9 +15827,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>945</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15955,12 +15861,10 @@
         <v>34803.29017958999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>945</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,9 +15901,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>945</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +15938,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>945</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16072,12 +15972,10 @@
         <v>34803.29017958999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>945</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +16012,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>945</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +16049,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>945</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +16086,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>945</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>945</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +16160,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>945</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +16197,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>945</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,9 +16234,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>945</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +16271,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>945</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,9 +16308,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>945</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,9 +16345,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>945</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,9 +16382,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>945</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +16419,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>945</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,9 +16456,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>945</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,9 +16493,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>945</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +16530,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>945</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,9 +16567,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>945</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,9 +16604,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>945</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,9 +16641,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>945</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,9 +16678,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>945</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,9 +16715,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>945</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,9 +16752,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>945</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,9 +16789,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>945</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,9 +16826,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>945</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,9 +16863,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>945</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,9 +16900,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>945</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,9 +16937,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>945</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,9 +16974,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>945</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,9 +17011,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>945</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,9 +17048,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>945</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,9 +17085,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>945</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17284,9 +17122,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>945</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,9 +17159,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>945</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17362,9 +17196,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>945</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,9 +17233,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>945</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17440,9 +17270,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>945</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17479,9 +17307,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>945</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17518,9 +17344,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>945</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,9 +17381,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>945</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,9 +17418,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>945</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,9 +17455,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>945</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,9 +17492,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>945</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,9 +17529,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>945</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,9 +17566,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>945</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,9 +17603,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>945</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,9 +17640,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>945</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,9 +17677,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>945</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17908,9 +17714,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>945</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,9 +17751,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>945</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,9 +17788,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>945</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,9 +17825,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>945</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,9 +17862,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>945</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,9 +17899,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>945</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +17936,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>945</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,9 +17973,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>945</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,9 +18010,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>945</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,9 +18047,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>945</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,9 +18084,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>945</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +18121,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>945</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,9 +18158,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>945</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,9 +18195,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>945</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,9 +18232,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>945</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +18269,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>945</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,9 +18306,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>945</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,9 +18343,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>945</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,9 +18380,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>945</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,9 +18417,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>945</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18454,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>945</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,9 +18491,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>945</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,9 +18528,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>945</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,9 +18565,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>945</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +18602,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>945</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18883,9 +18639,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>945</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +18676,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>945</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,9 +18713,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>945</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,9 +18750,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>945</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +18787,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>945</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,9 +18824,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>945</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,9 +18861,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>945</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,9 +18898,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>945</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,9 +18935,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>945</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +18972,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>945</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,9 +19009,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>945</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +19046,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>945</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19351,9 +19083,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>945</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,9 +19120,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>945</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,9 +19157,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>945</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,9 +19194,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>945</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19507,9 +19231,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>945</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19546,9 +19268,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>945</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,9 +19305,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>945</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19624,9 +19342,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>945</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19663,9 +19379,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>945</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,9 +19416,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>945</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +19453,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>945</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,9 +19490,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>945</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,9 +19527,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>945</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,9 +19564,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>945</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,9 +19601,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>945</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,9 +19638,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>945</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,9 +19675,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>945</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20014,9 +19712,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>945</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,9 +19749,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>945</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +19786,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>945</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20131,9 +19823,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>945</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,9 +19860,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>945</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20209,9 +19897,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>945</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20248,9 +19934,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>945</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +19971,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>945</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20326,9 +20008,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>945</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,9 +20045,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>945</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20404,9 +20082,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>945</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +20119,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>945</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20482,9 +20156,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>945</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20521,9 +20193,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>945</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,9 +20230,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>945</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,9 +20267,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>945</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +20304,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>945</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,9 +20341,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>945</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +20378,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>945</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,9 +20415,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>945</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,9 +20452,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>945</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +20489,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>945</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,9 +20526,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>945</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +20563,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>945</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20950,9 +20600,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>945</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,9 +20637,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>945</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +20674,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>945</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +20711,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>945</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +20748,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>945</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +20785,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>945</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,9 +20822,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>945</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +20859,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>945</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +20896,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>945</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +20933,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>945</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +20970,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>945</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,9 +21007,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>945</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,9 +21044,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>945</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,9 +21081,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>945</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,9 +21118,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>945</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,9 +21155,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>945</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,9 +21192,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>945</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,9 +21229,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>945</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21652,9 +21266,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>945</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +21303,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>945</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,9 +21340,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>945</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,9 +21377,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>945</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,9 +21414,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>945</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21847,9 +21451,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>945</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,9 +21488,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>945</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +21525,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>945</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21964,9 +21562,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>945</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,9 +21599,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>945</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +21636,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>945</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22081,9 +21673,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>945</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +21710,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>945</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,9 +21747,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>945</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22198,9 +21784,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>945</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,9 +21821,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>945</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,9 +21858,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>945</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,9 +21895,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>945</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,9 +21932,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>945</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22393,9 +21969,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>945</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +22006,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>945</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22471,9 +22043,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>945</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22510,9 +22080,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>945</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22549,9 +22117,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>945</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,9 +22154,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>945</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22627,9 +22191,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>945</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22666,9 +22228,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>945</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,9 +22265,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>945</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,9 +22302,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>945</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,9 +22339,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>945</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22822,9 +22376,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>945</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22861,9 +22413,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>945</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,9 +22450,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>945</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22939,9 +22487,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>945</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,9 +22524,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>945</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23017,9 +22561,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>945</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23056,9 +22598,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>945</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23095,9 +22635,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>945</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23134,9 +22672,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>945</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23173,9 +22709,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>945</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23212,9 +22746,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>945</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23251,9 +22783,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>945</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23290,9 +22820,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>945</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23329,9 +22857,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>945</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23368,9 +22894,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>945</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23407,9 +22931,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>945</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23446,9 +22968,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>945</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23485,9 +23005,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>945</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23524,9 +23042,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>945</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,9 +23079,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>945</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,9 +23116,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>945</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23641,9 +23153,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>945</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23680,9 +23190,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>945</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23719,9 +23227,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>945</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,9 +23264,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>945</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23797,9 +23301,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>945</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23836,9 +23338,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>945</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,9 +23375,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>945</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23914,9 +23412,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>945</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23953,9 +23449,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>945</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,9 +23486,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>945</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +23523,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>945</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24070,9 +23560,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>945</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,9 +23597,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>945</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24148,9 +23634,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>945</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24187,9 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>945</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,9 +23708,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>945</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,9 +23745,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>945</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,9 +23782,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>945</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24343,9 +23819,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>945</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24382,9 +23856,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>945</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24421,9 +23893,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>945</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24460,9 +23930,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>945</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24499,9 +23967,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>945</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,9 +24004,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>945</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24577,9 +24041,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>945</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,9 +24078,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>945</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,9 +24115,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>945</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,9 +24152,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>945</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,9 +24189,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>945</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,9 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>945</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24811,9 +24263,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>945</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24850,9 +24300,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>945</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24889,9 +24337,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>945</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,9 +24374,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>945</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,9 +24411,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>945</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,9 +24448,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>945</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25045,9 +24485,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>945</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25084,9 +24522,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>945</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25123,9 +24559,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>945</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,9 +24596,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>945</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25198,19 +24630,17 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>945</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
-        <v>1.001349206349206</v>
+        <v>1</v>
       </c>
       <c r="M683" t="inlineStr"/>
     </row>
@@ -25241,7 +24671,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25274,7 +24708,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25307,7 +24745,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25340,7 +24782,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25373,7 +24819,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25406,7 +24856,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25439,7 +24893,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25472,7 +24930,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25505,7 +24967,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25538,7 +25004,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25567,11 +25037,15 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25600,11 +25074,15 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25633,14 +25111,16 @@
         <v>39743.60677958999</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="inlineStr"/>
     </row>
     <row r="697">
@@ -25699,7 +25179,7 @@
         <v>39943.60677958999</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25732,7 +25212,7 @@
         <v>39913.30677958998</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25798,7 +25278,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25831,7 +25311,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25897,7 +25377,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25963,7 +25443,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26029,7 +25509,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26062,7 +25542,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26095,7 +25575,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26128,7 +25608,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26392,7 +25872,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26425,7 +25905,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26458,7 +25938,7 @@
         <v>40792.90677958998</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26524,7 +26004,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26557,7 +26037,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26590,7 +26070,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26821,7 +26301,7 @@
         <v>41488.20677958999</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27085,7 +26565,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27118,7 +26598,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27151,7 +26631,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27184,7 +26664,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27217,7 +26697,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27250,7 +26730,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27283,7 +26763,7 @@
         <v>41095.54507958999</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27349,7 +26829,7 @@
         <v>41077.74507958999</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27415,7 +26895,7 @@
         <v>41290.84507958998</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27448,7 +26928,7 @@
         <v>41306.04507958998</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27481,7 +26961,7 @@
         <v>41306.04507958998</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27514,7 +26994,7 @@
         <v>41306.04507958998</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27580,7 +27060,7 @@
         <v>41306.04507958998</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27613,7 +27093,7 @@
         <v>41306.04507958998</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28075,7 +27555,7 @@
         <v>41389.74507958998</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29065,7 +28545,7 @@
         <v>44320.40037958997</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29098,7 +28578,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29131,7 +28611,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29164,7 +28644,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29197,7 +28677,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29263,7 +28743,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29560,7 +29040,7 @@
         <v>46044.10037958997</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29593,7 +29073,7 @@
         <v>46044.10037958997</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29692,7 +29172,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29725,7 +29205,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29758,7 +29238,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29791,7 +29271,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29824,7 +29304,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29857,7 +29337,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29890,7 +29370,7 @@
         <v>46038.00037958997</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29923,7 +29403,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29956,7 +29436,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29989,7 +29469,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30022,7 +29502,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30055,7 +29535,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30088,7 +29568,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30121,7 +29601,7 @@
         <v>46542.40037958997</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30187,7 +29667,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30451,7 +29931,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30517,7 +29997,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30550,7 +30030,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30583,7 +30063,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30616,7 +30096,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30649,7 +30129,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30682,7 +30162,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30715,7 +30195,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30748,7 +30228,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30781,7 +30261,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30814,7 +30294,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30847,7 +30327,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30880,7 +30360,7 @@
         <v>48046.80037958996</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30913,7 +30393,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30946,7 +30426,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30979,7 +30459,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31012,7 +30492,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31045,7 +30525,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31078,7 +30558,7 @@
         <v>48233.80037958996</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31144,7 +30624,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31210,7 +30690,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31243,7 +30723,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31309,7 +30789,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31441,7 +30921,7 @@
         <v>49516.20037958997</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31606,7 +31086,7 @@
         <v>49516.20037958997</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31738,7 +31218,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31771,7 +31251,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31804,7 +31284,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31837,7 +31317,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31870,7 +31350,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31903,7 +31383,7 @@
         <v>50421.10037958997</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31936,7 +31416,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31969,7 +31449,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32002,7 +31482,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32035,7 +31515,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32068,7 +31548,7 @@
         <v>50911.40037958996</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32101,7 +31581,7 @@
         <v>50911.40037958996</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32134,7 +31614,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32167,7 +31647,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32233,7 +31713,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32266,7 +31746,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32299,7 +31779,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32332,7 +31812,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32365,7 +31845,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32398,7 +31878,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32431,7 +31911,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32464,7 +31944,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32497,7 +31977,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32530,7 +32010,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32563,7 +32043,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32794,7 +32274,7 @@
         <v>51292.90037958996</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32893,7 +32373,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32926,7 +32406,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32992,7 +32472,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33025,7 +32505,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33091,7 +32571,7 @@
         <v>51919.10037958996</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33124,7 +32604,7 @@
         <v>51863.93407958996</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33157,7 +32637,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33190,7 +32670,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33223,7 +32703,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33256,7 +32736,7 @@
         <v>52814.51537958996</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33289,7 +32769,7 @@
         <v>52749.03767958996</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33322,7 +32802,7 @@
         <v>52749.03767958996</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33355,7 +32835,7 @@
         <v>53458.63767958996</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33388,7 +32868,7 @@
         <v>53440.33767958995</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33465,6 +32945,6 @@
       <c r="M933" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BHP.xlsx
+++ b/BackTest/2020-01-13 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4525.18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9460.332879590002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>10331.63287959</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>23184.58817958999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8800,10 +8800,14 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>939</v>
+      </c>
+      <c r="J255" t="n">
+        <v>939</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -8833,11 +8837,19 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>939</v>
+      </c>
+      <c r="J256" t="n">
+        <v>939</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8878,19 @@
         <v>23443.93847958999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>939</v>
+      </c>
+      <c r="J257" t="n">
+        <v>939</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8919,19 @@
         <v>23616.53847958999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="J258" t="n">
+        <v>939</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8960,19 @@
         <v>23591.63847958999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>939</v>
+      </c>
+      <c r="J259" t="n">
+        <v>939</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9004,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>939</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,15 +9040,15 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>939</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9037,12 +9079,12 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>939</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>939</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,7 +9123,9 @@
       <c r="I263" t="n">
         <v>939</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>939</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,12 +9159,12 @@
         <v>23704.20767958998</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>939</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>939</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,12 +9198,12 @@
         <v>23832.20767958998</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>939</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9193,12 +9237,12 @@
         <v>24139.60767958999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>939</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>939</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9232,12 +9276,12 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>940</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>939</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,12 +9315,12 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>943</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>939</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9310,12 +9354,12 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>943</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>939</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9352,7 +9396,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>939</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,7 +9435,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>939</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,7 +9474,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>939</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,7 +9513,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>939</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9500,7 +9552,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>939</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,7 +9591,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>939</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,7 +9630,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>939</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,7 +9669,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>939</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,7 +9708,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>939</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,7 +9747,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>939</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,7 +9786,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>939</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,7 +9825,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>939</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,7 +9864,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>939</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9833,7 +9903,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>939</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9870,7 +9942,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>939</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,7 +9981,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>939</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9944,7 +10020,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>939</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,7 +10059,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>939</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,7 +10098,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>939</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10055,7 +10137,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>939</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10092,7 +10176,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>939</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,7 +10215,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>939</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,7 +10254,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>939</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,7 +10293,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>939</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,7 +10332,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>939</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,7 +10371,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>939</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10314,7 +10410,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>939</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,7 +10449,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>939</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,7 +10488,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>939</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,7 +10527,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>939</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,7 +10566,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>939</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10499,7 +10605,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>939</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,7 +10644,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>939</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,7 +10683,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>939</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,7 +10722,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>939</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,7 +10761,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>939</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,7 +10800,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>939</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,7 +10839,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>939</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,7 +10878,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>939</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,7 +10917,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>939</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,7 +10956,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>939</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10869,7 +10995,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>939</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,7 +11034,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>939</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10943,7 +11073,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>939</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,7 +11112,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>939</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11017,7 +11151,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>939</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11054,7 +11190,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>939</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,7 +11229,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>939</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11128,7 +11268,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>939</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11165,7 +11307,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>939</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,7 +11346,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>939</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,7 +11385,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>939</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,7 +11424,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>939</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,7 +11463,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>939</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11350,7 +11502,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>939</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11387,7 +11541,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>939</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11424,7 +11580,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>939</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11461,7 +11619,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>939</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11498,7 +11658,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>939</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11535,7 +11697,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>939</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,7 +11736,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>939</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,7 +11775,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>939</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,7 +11814,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>939</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11683,7 +11853,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>939</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11720,7 +11892,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>939</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,7 +11931,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>939</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11794,7 +11970,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>939</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,7 +12009,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>939</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11868,7 +12048,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>939</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,7 +12087,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>939</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11942,7 +12126,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>939</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11979,7 +12165,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>939</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12016,7 +12204,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>939</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12053,7 +12243,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>939</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12090,7 +12282,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>939</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12127,7 +12321,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>939</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12164,7 +12360,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>939</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,7 +12399,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>939</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,7 +12438,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>939</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12275,7 +12477,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>939</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12312,7 +12516,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>939</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12349,7 +12555,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>939</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12386,7 +12594,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>939</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12423,7 +12633,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>939</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12460,7 +12672,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>939</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12497,7 +12711,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>939</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12534,7 +12750,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>939</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12571,7 +12789,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>939</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12608,7 +12828,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>939</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12645,7 +12867,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>939</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12682,7 +12906,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>939</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12719,7 +12945,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>939</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12756,7 +12984,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>939</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,7 +13023,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>939</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12830,7 +13062,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>939</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12867,7 +13101,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>939</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12904,7 +13140,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>939</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12941,7 +13179,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>939</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12978,7 +13218,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>939</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13015,7 +13257,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>939</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13052,7 +13296,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>939</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13089,7 +13335,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>939</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13126,7 +13374,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>939</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13163,7 +13413,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>939</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13200,7 +13452,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>939</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13237,7 +13491,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>939</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13274,7 +13530,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>939</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13311,7 +13569,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>939</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13348,7 +13608,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>939</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13385,7 +13647,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>939</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13422,7 +13686,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>939</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13459,7 +13725,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>939</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13496,7 +13764,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>939</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13533,7 +13803,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>939</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13570,7 +13842,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>939</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13607,7 +13881,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>939</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,7 +13920,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>939</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13681,7 +13959,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>939</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13718,7 +13998,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>939</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13755,7 +14037,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>939</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13792,7 +14076,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>939</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13829,7 +14115,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>939</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13866,7 +14154,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>939</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13903,7 +14193,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>939</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13940,7 +14232,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>939</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13977,7 +14271,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>939</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,7 +14310,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>939</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14051,7 +14349,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>939</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14088,7 +14388,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>939</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14125,7 +14427,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>939</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14162,7 +14466,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>939</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14199,7 +14505,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>939</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14236,7 +14544,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>939</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14273,7 +14583,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>939</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,7 +14622,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>939</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14347,7 +14661,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>939</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14384,7 +14700,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>939</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,7 +14739,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>939</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14458,7 +14778,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>939</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14495,7 +14817,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>939</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14532,7 +14856,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>939</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14569,7 +14895,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>939</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14606,7 +14934,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>939</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14643,7 +14973,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>939</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14680,7 +15012,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>939</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14717,7 +15051,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>939</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14754,7 +15090,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>939</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14791,7 +15129,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>939</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14828,7 +15168,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>939</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14865,7 +15207,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>939</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14902,7 +15246,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>939</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14939,7 +15285,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>939</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14976,7 +15324,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>939</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15013,7 +15363,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>939</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15050,7 +15402,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>939</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,7 +15441,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>939</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,7 +15480,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>939</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15161,7 +15519,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>939</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15198,7 +15558,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>939</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,7 +15597,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>939</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15272,7 +15636,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>939</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15309,7 +15675,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>939</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15346,7 +15714,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>939</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,7 +15753,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>939</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15420,7 +15792,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>939</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,7 +15831,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>939</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15494,7 +15870,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>939</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15531,7 +15909,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>939</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15568,7 +15948,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>939</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15605,7 +15987,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>939</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15642,7 +16026,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>939</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15679,7 +16065,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>939</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15716,7 +16104,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>939</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15753,7 +16143,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>939</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15790,7 +16182,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>939</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15827,7 +16221,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>939</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15864,7 +16260,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>939</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15901,7 +16299,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>939</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15938,7 +16338,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>939</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15975,7 +16377,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>939</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16012,7 +16416,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>939</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16049,7 +16455,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>939</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,7 +16494,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>939</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16123,7 +16533,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>939</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16160,7 +16572,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>939</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16197,7 +16611,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>939</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16234,7 +16650,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>939</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16271,7 +16689,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>939</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16308,7 +16728,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>939</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16345,7 +16767,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>939</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16382,7 +16806,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>939</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16419,7 +16845,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>939</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16456,7 +16884,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>939</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16493,7 +16923,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>939</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16530,7 +16962,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>939</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16567,7 +17001,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>939</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16604,7 +17040,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>939</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16641,7 +17079,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>939</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,7 +17118,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>939</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16715,7 +17157,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>939</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16752,7 +17196,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>939</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16789,7 +17235,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>939</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16826,7 +17274,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>939</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16863,7 +17313,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>939</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16900,7 +17352,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>939</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16937,7 +17391,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>939</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16974,7 +17430,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>939</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,7 +17469,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>939</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17048,7 +17508,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>939</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17085,7 +17547,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>939</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17122,7 +17586,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>939</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17159,7 +17625,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>939</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,7 +17664,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>939</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17233,7 +17703,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>939</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17270,7 +17742,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>939</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17307,7 +17781,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>939</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,7 +17820,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>939</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17381,7 +17859,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>939</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17418,7 +17898,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>939</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17455,7 +17937,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>939</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17492,7 +17976,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>939</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17529,7 +18015,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>939</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17566,7 +18054,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>939</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17603,7 +18093,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>939</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17640,7 +18132,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>939</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17677,7 +18171,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>939</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17714,7 +18210,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>939</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17751,7 +18249,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>939</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17788,7 +18288,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>939</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17825,7 +18327,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>939</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17862,7 +18366,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>939</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17899,7 +18405,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>939</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17936,7 +18444,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>939</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,7 +18483,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>939</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18010,7 +18522,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>939</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18047,7 +18561,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>939</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18084,7 +18600,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>939</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18121,7 +18639,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>939</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18158,7 +18678,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>939</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18195,7 +18717,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>939</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18232,7 +18756,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>939</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18269,7 +18795,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>939</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18306,7 +18834,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>939</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18343,7 +18873,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>939</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18380,7 +18912,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>939</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18417,7 +18951,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>939</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,7 +18990,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>939</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18491,7 +19029,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>939</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18528,7 +19068,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>939</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18565,7 +19107,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>939</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18602,7 +19146,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>939</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18639,7 +19185,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>939</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18676,7 +19224,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>939</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18713,7 +19263,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>939</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18750,7 +19302,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>939</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18787,7 +19341,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>939</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18824,7 +19380,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>939</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18861,7 +19419,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>939</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18898,7 +19458,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>939</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18935,7 +19497,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>939</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18972,7 +19536,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>939</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19009,7 +19575,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>939</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19046,7 +19614,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>939</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19083,7 +19653,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>939</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19120,7 +19692,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>939</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19157,7 +19731,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>939</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19194,7 +19770,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>939</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19231,7 +19809,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>939</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19268,7 +19848,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>939</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19305,7 +19887,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>939</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19342,7 +19926,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>939</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19379,7 +19965,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>939</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,7 +20004,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>939</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19453,7 +20043,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>939</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19490,7 +20082,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>939</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19527,7 +20121,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>939</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19564,7 +20160,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>939</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19601,7 +20199,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>939</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19638,7 +20238,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>939</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19675,7 +20277,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>939</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19712,7 +20316,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>939</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19749,7 +20355,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>939</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19786,7 +20394,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>939</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19823,7 +20433,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>939</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19860,7 +20472,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>939</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,7 +20511,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>939</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19934,7 +20550,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>939</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19971,7 +20589,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>939</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20008,7 +20628,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>939</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20045,7 +20667,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>939</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20082,7 +20706,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>939</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20119,7 +20745,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>939</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20156,7 +20784,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>939</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20193,7 +20823,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>939</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20230,7 +20862,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>939</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20267,7 +20901,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>939</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20304,7 +20940,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>939</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20341,7 +20979,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>939</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,7 +21018,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>939</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20415,7 +21057,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>939</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20452,7 +21096,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>939</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,7 +21135,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>939</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20526,7 +21174,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>939</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20563,7 +21213,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>939</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20600,7 +21252,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>939</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20637,7 +21291,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>939</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20674,7 +21330,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>939</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20711,7 +21369,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>939</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20748,7 +21408,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>939</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20785,7 +21447,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>939</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20822,7 +21486,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>939</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20859,7 +21525,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>939</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20896,7 +21564,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>939</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20933,7 +21603,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>939</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20970,7 +21642,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>939</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21007,7 +21681,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>939</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21044,7 +21720,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>939</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21081,7 +21759,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>939</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21118,7 +21798,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>939</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21155,7 +21837,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>939</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21192,7 +21876,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>939</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21229,7 +21915,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>939</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21266,7 +21954,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>939</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21303,7 +21993,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>939</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,7 +22032,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>939</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21377,7 +22071,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>939</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21414,7 +22110,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>939</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,7 +22149,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>939</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21488,7 +22188,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>939</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21525,7 +22227,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>939</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21562,7 +22266,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>939</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21599,7 +22305,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>939</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21636,7 +22344,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>939</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21673,7 +22383,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>939</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21710,7 +22422,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>939</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21747,7 +22461,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>939</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21784,7 +22500,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>939</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21821,7 +22539,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>939</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21858,7 +22578,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>939</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,7 +22617,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>939</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,7 +22656,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>939</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21969,7 +22695,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>939</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22006,7 +22734,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>939</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22043,7 +22773,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>939</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22080,7 +22812,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>939</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22117,7 +22851,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>939</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22154,7 +22890,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>939</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22191,7 +22929,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>939</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22228,7 +22968,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>939</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22265,7 +23007,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>939</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22302,7 +23046,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>939</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22339,7 +23085,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>939</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22376,7 +23124,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>939</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22413,7 +23163,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>939</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22450,7 +23202,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>939</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22487,7 +23241,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>939</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22524,7 +23280,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>939</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22561,7 +23319,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>939</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22598,7 +23358,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>939</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22635,7 +23397,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>939</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22672,7 +23436,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>939</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22709,7 +23475,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>939</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22746,7 +23514,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>939</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,7 +23553,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>939</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22820,7 +23592,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>939</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22857,7 +23631,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>939</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22894,7 +23670,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>939</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22931,7 +23709,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>939</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22968,7 +23748,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>939</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,7 +23787,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>939</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23042,7 +23826,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>939</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23079,7 +23865,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>939</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23116,7 +23904,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>939</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23153,7 +23943,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>939</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23190,7 +23982,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>939</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23227,7 +24021,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>939</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23264,7 +24060,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>939</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23301,7 +24099,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>939</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23338,7 +24138,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>939</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23375,7 +24177,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>939</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23412,7 +24216,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>939</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23449,7 +24255,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>939</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23486,7 +24294,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>939</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23523,7 +24333,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>939</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23560,7 +24372,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>939</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,7 +24411,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>939</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23634,7 +24450,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>939</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,7 +24489,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>939</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23708,7 +24528,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>939</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23745,7 +24567,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>939</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23782,7 +24606,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>939</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23816,17 +24642,19 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>939</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>1</v>
+        <v>1.007779552715655</v>
       </c>
       <c r="M661" t="inlineStr"/>
     </row>
@@ -23853,15 +24681,11 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23890,15 +24714,11 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23927,15 +24747,11 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23968,11 +24784,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24005,11 +24817,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24042,11 +24850,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24883,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24116,11 +24916,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24153,11 +24949,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24190,11 +24982,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24227,11 +25015,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24264,11 +25048,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24301,11 +25081,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +25114,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24375,11 +25147,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +25180,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24449,11 +25213,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24486,11 +25246,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24523,11 +25279,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24560,11 +25312,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24597,11 +25345,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24634,11 +25378,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24671,11 +25411,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24708,11 +25444,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24745,11 +25477,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24782,11 +25510,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24819,11 +25543,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24856,11 +25576,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24893,11 +25609,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24930,11 +25642,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24967,11 +25675,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25004,11 +25708,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25041,11 +25741,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25078,11 +25774,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25111,16 +25803,14 @@
         <v>39743.60677958999</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
       <c r="M696" t="inlineStr"/>
     </row>
     <row r="697">
@@ -25179,7 +25869,7 @@
         <v>39943.60677958999</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25212,7 +25902,7 @@
         <v>39913.30677958998</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25278,7 +25968,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25311,7 +26001,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25377,7 +26067,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25443,7 +26133,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25509,7 +26199,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25542,7 +26232,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25575,7 +26265,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25608,7 +26298,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25872,7 +26562,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25905,7 +26595,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25938,7 +26628,7 @@
         <v>40792.90677958998</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26004,7 +26694,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26037,7 +26727,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26070,7 +26760,7 @@
         <v>41490.60677958998</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28545,7 +29235,7 @@
         <v>44320.40037958997</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28578,7 +29268,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28611,7 +29301,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28644,7 +29334,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29040,7 +29730,7 @@
         <v>46044.10037958997</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29073,7 +29763,7 @@
         <v>46044.10037958997</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29172,7 +29862,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29205,7 +29895,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29238,7 +29928,7 @@
         <v>45834.60037958997</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29271,7 +29961,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29304,7 +29994,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29337,7 +30027,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29370,7 +30060,7 @@
         <v>46038.00037958997</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29403,7 +30093,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29436,7 +30126,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29469,7 +30159,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29502,7 +30192,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29535,7 +30225,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29568,7 +30258,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29601,7 +30291,7 @@
         <v>46542.40037958997</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30030,7 +30720,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30063,7 +30753,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30096,7 +30786,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30129,7 +30819,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30162,7 +30852,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30195,7 +30885,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30228,7 +30918,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30261,7 +30951,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30294,7 +30984,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30327,7 +31017,7 @@
         <v>47400.60037958997</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30360,7 +31050,7 @@
         <v>48046.80037958996</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30393,7 +31083,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30426,7 +31116,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30459,7 +31149,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30492,7 +31182,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30525,7 +31215,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30558,7 +31248,7 @@
         <v>48233.80037958996</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30624,7 +31314,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30690,7 +31380,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30723,7 +31413,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30789,7 +31479,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31086,7 +31776,7 @@
         <v>49516.20037958997</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31218,7 +31908,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31251,7 +31941,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31284,7 +31974,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31317,7 +32007,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31350,7 +32040,7 @@
         <v>50425.80037958996</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31383,7 +32073,7 @@
         <v>50421.10037958997</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31416,7 +32106,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31449,7 +32139,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31482,7 +32172,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31515,7 +32205,7 @@
         <v>50404.80037958996</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31548,7 +32238,7 @@
         <v>50911.40037958996</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31581,7 +32271,7 @@
         <v>50911.40037958996</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31614,7 +32304,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31647,7 +32337,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31713,7 +32403,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31746,7 +32436,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31779,7 +32469,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31812,7 +32502,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31845,7 +32535,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31878,7 +32568,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31911,7 +32601,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31944,7 +32634,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31977,7 +32667,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32010,7 +32700,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32043,7 +32733,7 @@
         <v>50615.30037958996</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32274,7 +32964,7 @@
         <v>51292.90037958996</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32373,7 +33063,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32406,7 +33096,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32472,7 +33162,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32505,7 +33195,7 @@
         <v>51922.10037958996</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32571,7 +33261,7 @@
         <v>51919.10037958996</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32604,7 +33294,7 @@
         <v>51863.93407958996</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32637,7 +33327,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32670,7 +33360,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32703,7 +33393,7 @@
         <v>52166.53407958996</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32736,7 +33426,7 @@
         <v>52814.51537958996</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32769,7 +33459,7 @@
         <v>52749.03767958996</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32802,7 +33492,7 @@
         <v>52749.03767958996</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32835,7 +33525,7 @@
         <v>53458.63767958996</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32868,7 +33558,7 @@
         <v>53440.33767958995</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32945,6 +33635,6 @@
       <c r="M933" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BHP.xlsx
+++ b/BackTest/2020-01-13 BackTest BHP.xlsx
@@ -484,10 +484,14 @@
         <v>5215.18</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>943</v>
+      </c>
+      <c r="J3" t="n">
+        <v>943</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>5215.18</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>945</v>
+      </c>
+      <c r="J4" t="n">
+        <v>943</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>5215.18</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>945</v>
+      </c>
+      <c r="J5" t="n">
+        <v>943</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>5215.18</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>945</v>
+      </c>
+      <c r="J6" t="n">
+        <v>945</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>5215.18</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>945</v>
+      </c>
+      <c r="J7" t="n">
+        <v>945</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>5427.18</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>945</v>
+      </c>
+      <c r="J8" t="n">
+        <v>945</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>5427.18</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>947</v>
+      </c>
+      <c r="J9" t="n">
+        <v>947</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>5427.18</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>947</v>
+      </c>
+      <c r="J10" t="n">
+        <v>947</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>5677.18</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>947</v>
+      </c>
+      <c r="J11" t="n">
+        <v>947</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -847,10 +907,14 @@
         <v>6079.380000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>945</v>
+      </c>
+      <c r="J14" t="n">
+        <v>945</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +944,19 @@
         <v>6079.380000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>947</v>
+      </c>
+      <c r="J15" t="n">
+        <v>945</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +985,19 @@
         <v>6306.380000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>947</v>
+      </c>
+      <c r="J16" t="n">
+        <v>945</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1059,14 @@
         <v>6297.480000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>947</v>
+      </c>
+      <c r="J18" t="n">
+        <v>947</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1096,19 @@
         <v>6734.480000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>947</v>
+      </c>
+      <c r="J19" t="n">
+        <v>947</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1140,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>947</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1474,10 +1572,14 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>949</v>
+      </c>
+      <c r="J33" t="n">
+        <v>949</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1507,11 +1609,19 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>949</v>
+      </c>
+      <c r="J34" t="n">
+        <v>949</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1650,19 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>949</v>
+      </c>
+      <c r="J35" t="n">
+        <v>949</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,10 +1691,14 @@
         <v>7385.980000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>949</v>
+      </c>
+      <c r="J36" t="n">
+        <v>949</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1731,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>949</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1770,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>949</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1969,7 +2103,7 @@
         <v>9460.332879590002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2136,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2169,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2202,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2235,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2629,7 +2763,7 @@
         <v>10331.63287959</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2796,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2829,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -5698,7 +5832,7 @@
         <v>19258.48817959</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6952,7 +7086,7 @@
         <v>23184.58817958999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8206,7 +8340,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8800,14 +8934,10 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>939</v>
-      </c>
-      <c r="J255" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -8837,19 +8967,11 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>939</v>
-      </c>
-      <c r="J256" t="n">
-        <v>939</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8878,19 +9000,11 @@
         <v>23443.93847958999</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>939</v>
-      </c>
-      <c r="J257" t="n">
-        <v>939</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8919,19 +9033,11 @@
         <v>23616.53847958999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="J258" t="n">
-        <v>939</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8960,19 +9066,11 @@
         <v>23591.63847958999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>939</v>
-      </c>
-      <c r="J259" t="n">
-        <v>939</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>939</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9040,15 +9132,15 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9079,12 +9171,12 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
         <v>939</v>
       </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,9 +9215,7 @@
       <c r="I263" t="n">
         <v>939</v>
       </c>
-      <c r="J263" t="n">
-        <v>939</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9159,12 +9249,12 @@
         <v>23704.20767958998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
         <v>939</v>
       </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9198,12 +9288,12 @@
         <v>23832.20767958998</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,12 +9327,12 @@
         <v>24139.60767958999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
         <v>939</v>
       </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,12 +9366,12 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>940</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9318,9 +9408,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>939</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,9 +9445,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>939</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,9 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>939</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9435,9 +9519,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>939</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,9 +9556,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>939</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,9 +9593,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>939</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9552,9 +9630,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>939</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9591,9 +9667,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>939</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9630,9 +9704,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>939</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9669,9 +9741,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>939</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,9 +9778,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>939</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,9 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>939</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9786,9 +9852,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>939</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9825,9 +9889,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>939</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,9 +9926,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>939</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9903,9 +9963,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>939</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,9 +10000,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>939</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,9 +10037,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>939</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10020,9 +10074,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>939</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10059,9 +10111,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>939</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,9 +10148,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>939</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10137,9 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>939</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10176,9 +10222,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>939</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10215,9 +10259,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>939</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10254,9 +10296,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>939</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10293,9 +10333,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>939</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10332,9 +10370,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>939</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10371,9 +10407,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>939</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10410,9 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>939</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10449,9 +10481,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>939</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,9 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>939</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10527,9 +10555,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>939</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10566,9 +10592,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>939</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10605,9 +10629,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>939</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10644,9 +10666,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>939</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10683,9 +10703,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>939</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10722,9 +10740,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>939</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10761,9 +10777,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>939</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10800,9 +10814,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>939</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10839,9 +10851,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>939</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10878,9 +10888,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>939</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,9 +10925,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>939</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10956,9 +10962,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>939</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10995,9 +10999,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>939</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11034,9 +11036,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>939</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11073,9 +11073,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>939</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11112,9 +11110,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>939</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11151,9 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>939</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,9 +11184,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>939</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11229,9 +11221,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>939</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11268,9 +11258,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>939</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11307,9 +11295,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>939</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11346,9 +11332,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>939</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11385,9 +11369,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>939</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11424,9 +11406,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>939</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11463,9 +11443,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>939</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11502,9 +11480,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>939</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11541,9 +11517,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>939</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11580,9 +11554,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>939</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11619,9 +11591,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>939</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11658,9 +11628,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>939</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11697,9 +11665,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>939</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11736,9 +11702,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>939</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11775,9 +11739,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>939</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11814,9 +11776,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>939</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11853,9 +11813,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>939</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11892,9 +11850,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>939</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11931,9 +11887,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>939</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11970,9 +11924,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>939</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,9 +11961,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>939</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12048,9 +11998,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>939</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12087,9 +12035,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>939</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12126,9 +12072,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>939</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,9 +12109,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>939</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12204,9 +12146,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>939</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12243,9 +12183,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>939</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12282,9 +12220,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>939</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12321,9 +12257,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>939</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12360,9 +12294,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>939</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12399,9 +12331,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>939</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12438,9 +12368,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>939</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12477,9 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>939</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12516,9 +12442,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>939</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12555,9 +12479,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>939</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12594,9 +12516,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>939</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12633,9 +12553,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>939</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12672,9 +12590,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>939</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12711,9 +12627,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>939</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12750,9 +12664,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>939</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12789,9 +12701,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>939</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12828,9 +12738,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>939</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12867,9 +12775,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>939</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12906,9 +12812,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>939</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,9 +12849,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>939</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,9 +12886,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>939</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13023,9 +12923,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>939</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13062,9 +12960,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>939</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13101,9 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>939</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13140,9 +13034,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>939</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13179,9 +13071,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>939</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13218,9 +13108,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>939</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13257,9 +13145,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>939</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,9 +13182,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>939</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13335,9 +13219,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>939</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,9 +13256,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>939</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13413,9 +13293,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>939</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13452,9 +13330,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>939</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13491,9 +13367,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>939</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13530,9 +13404,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>939</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,9 +13441,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>939</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,9 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>939</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13647,9 +13515,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>939</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,9 +13552,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>939</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13725,9 +13589,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>939</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13764,9 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>939</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,9 +13663,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>939</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13842,9 +13700,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>939</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13881,9 +13737,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>939</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,9 +13774,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>939</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13959,9 +13811,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>939</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13998,9 +13848,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>939</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,9 +13885,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>939</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14076,9 +13922,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>939</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,9 +13959,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>939</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14154,9 +13996,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>939</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14193,9 +14033,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>939</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14232,9 +14070,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>939</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,9 +14107,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>939</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,9 +14144,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>939</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,9 +14181,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>939</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,9 +14218,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>939</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,9 +14255,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>939</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,9 +14292,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>939</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,9 +14329,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>939</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,9 +14366,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>939</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,9 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>939</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,9 +14440,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>939</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14661,9 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>939</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,9 +14514,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>939</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,9 +14551,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>939</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14778,9 +14588,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>939</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14817,9 +14625,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>939</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14856,9 +14662,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>939</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,9 +14699,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>939</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,9 +14736,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>939</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,9 +14773,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>939</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,9 +14810,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>939</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,9 +14847,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>939</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,9 +14884,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>939</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,9 +14921,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>939</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15168,9 +14958,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>939</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,9 +14995,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>939</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15246,9 +15032,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>939</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,9 +15069,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>939</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,9 +15106,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>939</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15363,9 +15143,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>939</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,9 +15180,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>939</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15441,9 +15217,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>939</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,9 +15254,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>939</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,9 +15291,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>939</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,9 +15328,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>939</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,9 +15365,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>939</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,9 +15402,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>939</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,9 +15439,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>939</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,9 +15476,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>939</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15753,9 +15513,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>939</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,9 +15550,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>939</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15831,9 +15587,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>939</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15870,9 +15624,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>939</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15909,9 +15661,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>939</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15948,9 +15698,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>939</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,9 +15735,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>939</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,9 +15772,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>939</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16065,9 +15809,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>939</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16104,9 +15846,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>939</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,9 +15883,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>939</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,9 +15920,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>939</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,9 +15957,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>939</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,9 +15994,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>939</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,9 +16031,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>939</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16338,9 +16068,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>939</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,9 +16105,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>939</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,9 +16142,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>939</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,9 +16179,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>939</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,9 +16216,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>939</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,9 +16253,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>939</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,9 +16290,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>939</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16611,9 +16327,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>939</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16650,9 +16364,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>939</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,9 +16401,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>939</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,9 +16438,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>939</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16767,9 +16475,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>939</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16806,9 +16512,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>939</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,9 +16549,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>939</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16884,9 +16586,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>939</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,9 +16623,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>939</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16962,9 +16660,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>939</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17001,9 +16697,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>939</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,9 +16734,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>939</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,9 +16771,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>939</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,9 +16808,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>939</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,9 +16845,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>939</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,9 +16882,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>939</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,9 +16919,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>939</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,9 +16956,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>939</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,9 +16993,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>939</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,9 +17030,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>939</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,9 +17067,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>939</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17430,9 +17104,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>939</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17469,9 +17141,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>939</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,9 +17178,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>939</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17547,9 +17215,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>939</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17586,9 +17252,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>939</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17625,9 +17289,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>939</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17664,9 +17326,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>939</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17703,9 +17363,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>939</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17742,9 +17400,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>939</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,9 +17437,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>939</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,9 +17474,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>939</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,9 +17511,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>939</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,9 +17548,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>939</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,9 +17585,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>939</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17976,9 +17622,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>939</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18015,9 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>939</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18054,9 +17696,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>939</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18093,9 +17733,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>939</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18132,9 +17770,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>939</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,9 +17807,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>939</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18210,9 +17844,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>939</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18249,9 +17881,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>939</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18288,9 +17918,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>939</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18327,9 +17955,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>939</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18366,9 +17992,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>939</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18405,9 +18029,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>939</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,9 +18066,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>939</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,9 +18103,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>939</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18522,9 +18140,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>939</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18561,9 +18177,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>939</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18600,9 +18214,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>939</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18639,9 +18251,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>939</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18678,9 +18288,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>939</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18717,9 +18325,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>939</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18756,9 +18362,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>939</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18795,9 +18399,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>939</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,9 +18436,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>939</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18873,9 +18473,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>939</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18912,9 +18510,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>939</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18951,9 +18547,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>939</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18990,9 +18584,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>939</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,9 +18621,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>939</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19068,9 +18658,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>939</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19107,9 +18695,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>939</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19146,9 +18732,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>939</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19185,9 +18769,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>939</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19224,9 +18806,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>939</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19263,9 +18843,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>939</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19302,9 +18880,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>939</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19341,9 +18917,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>939</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19380,9 +18954,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>939</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19419,9 +18991,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>939</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19458,9 +19028,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>939</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19497,9 +19065,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>939</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19536,9 +19102,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>939</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19575,9 +19139,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>939</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19614,9 +19176,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>939</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19653,9 +19213,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>939</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19692,9 +19250,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>939</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19731,9 +19287,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>939</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19770,9 +19324,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>939</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19809,9 +19361,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>939</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19848,9 +19398,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>939</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19887,9 +19435,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>939</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19926,9 +19472,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>939</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19965,9 +19509,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>939</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20004,9 +19546,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>939</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20043,9 +19583,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>939</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20082,9 +19620,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>939</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20121,9 +19657,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>939</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20160,9 +19694,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>939</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20199,9 +19731,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>939</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20238,9 +19768,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>939</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20277,9 +19805,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>939</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20316,9 +19842,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>939</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20355,9 +19879,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>939</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20394,9 +19916,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>939</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20433,9 +19953,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>939</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20472,9 +19990,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>939</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20511,9 +20027,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>939</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,9 +20064,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>939</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20589,9 +20101,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>939</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,9 +20138,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>939</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20667,9 +20175,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>939</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,9 +20212,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>939</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20745,9 +20249,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>939</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,9 +20286,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>939</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20823,9 +20323,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>939</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20862,9 +20360,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>939</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20901,9 +20397,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>939</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20940,9 +20434,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>939</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20979,9 +20471,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>939</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21018,9 +20508,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>939</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21057,9 +20545,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>939</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21096,9 +20582,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>939</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21135,9 +20619,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>939</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21174,9 +20656,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>939</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21213,9 +20693,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>939</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21252,9 +20730,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>939</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21291,9 +20767,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>939</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21330,9 +20804,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>939</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21369,9 +20841,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>939</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21408,9 +20878,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>939</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21447,9 +20915,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>939</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,9 +20952,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>939</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21525,9 +20989,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>939</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21564,9 +21026,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>939</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21603,9 +21063,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>939</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21642,9 +21100,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>939</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21681,9 +21137,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>939</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21720,9 +21174,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>939</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21759,9 +21211,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>939</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21798,9 +21248,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>939</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21837,9 +21285,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>939</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21876,9 +21322,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>939</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,9 +21359,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>939</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21954,9 +21396,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>939</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21993,9 +21433,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>939</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22032,9 +21470,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>939</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22071,9 +21507,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>939</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22110,9 +21544,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>939</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22149,9 +21581,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>939</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22188,9 +21618,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>939</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22227,9 +21655,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>939</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22266,9 +21692,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>939</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22305,9 +21729,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>939</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22344,9 +21766,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>939</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22383,9 +21803,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>939</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22422,9 +21840,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>939</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22461,9 +21877,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>939</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22500,9 +21914,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>939</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22539,9 +21951,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>939</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22578,9 +21988,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>939</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22617,9 +22025,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>939</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22656,9 +22062,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>939</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22695,9 +22099,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>939</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22734,9 +22136,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>939</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22773,9 +22173,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>939</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22812,9 +22210,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>939</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22851,9 +22247,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>939</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22890,9 +22284,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>939</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22929,9 +22321,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>939</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22968,9 +22358,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>939</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23007,9 +22395,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>939</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23046,9 +22432,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>939</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23085,9 +22469,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>939</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23124,9 +22506,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>939</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23163,9 +22543,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>939</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23202,9 +22580,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>939</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23241,9 +22617,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>939</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23280,9 +22654,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>939</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23319,9 +22691,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>939</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23358,9 +22728,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>939</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23397,9 +22765,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>939</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23436,9 +22802,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>939</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23475,9 +22839,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>939</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23514,9 +22876,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>939</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23553,9 +22913,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>939</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23592,9 +22950,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>939</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23631,9 +22987,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>939</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23670,9 +23024,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>939</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23709,9 +23061,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>939</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23748,9 +23098,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>939</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23787,9 +23135,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>939</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23826,9 +23172,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>939</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23865,9 +23209,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>939</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23904,9 +23246,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>939</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23943,9 +23283,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>939</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23982,9 +23320,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>939</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24021,9 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>939</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24060,9 +23394,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>939</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24099,9 +23431,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>939</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24138,9 +23468,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>939</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24177,9 +23505,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>939</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24216,9 +23542,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>939</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24255,9 +23579,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>939</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24294,9 +23616,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>939</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24333,9 +23653,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>939</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24372,9 +23690,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>939</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24411,9 +23727,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>939</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24450,9 +23764,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>939</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24489,9 +23801,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>939</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24528,9 +23838,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>939</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24567,9 +23875,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>939</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24606,9 +23912,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>939</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24642,19 +23946,17 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>939</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>1.007779552715655</v>
+        <v>1</v>
       </c>
       <c r="M661" t="inlineStr"/>
     </row>
@@ -24681,11 +23983,15 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24714,11 +24020,15 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24747,11 +24057,15 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24784,7 +24098,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24817,7 +24135,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24850,7 +24172,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24883,7 +24209,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24916,7 +24246,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24949,7 +24283,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24982,7 +24320,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25015,7 +24357,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25048,7 +24394,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25081,7 +24431,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25114,7 +24468,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25147,7 +24505,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25180,7 +24542,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25213,7 +24579,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25246,7 +24616,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25279,7 +24653,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25312,7 +24690,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25345,7 +24727,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25378,7 +24764,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25407,14 +24797,16 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="inlineStr"/>
     </row>
     <row r="685">
@@ -25440,7 +24832,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25572,7 +24964,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25605,7 +24997,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25638,7 +25030,7 @@
         <v>39184.30677958999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25671,7 +25063,7 @@
         <v>39686.30677958999</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25704,7 +25096,7 @@
         <v>39660.00677958999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25737,7 +25129,7 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25770,7 +25162,7 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25803,7 +25195,7 @@
         <v>39743.60677958999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25869,7 +25261,7 @@
         <v>39943.60677958999</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25902,7 +25294,7 @@
         <v>39913.30677958998</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25968,7 +25360,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26199,7 +25591,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26232,7 +25624,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26265,7 +25657,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26298,7 +25690,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26331,7 +25723,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26364,7 +25756,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26397,7 +25789,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26430,7 +25822,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26463,7 +25855,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26496,7 +25888,7 @@
         <v>40713.20677958998</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26529,7 +25921,7 @@
         <v>40694.50677958998</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26595,7 +25987,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26628,7 +26020,7 @@
         <v>40792.90677958998</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -29301,7 +28693,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29334,7 +28726,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29994,7 +29386,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30060,7 +29452,7 @@
         <v>46038.00037958997</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30093,7 +29485,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30126,7 +29518,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30159,7 +29551,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30192,7 +29584,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30225,7 +29617,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30258,7 +29650,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30291,7 +29683,7 @@
         <v>46542.40037958997</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30324,7 +29716,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30357,7 +29749,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30390,7 +29782,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30423,7 +29815,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30456,7 +29848,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30489,7 +29881,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30522,7 +29914,7 @@
         <v>47583.50037958997</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30555,7 +29947,7 @@
         <v>47420.00037958997</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30588,7 +29980,7 @@
         <v>47436.10037958997</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30621,7 +30013,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30654,7 +30046,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30687,7 +30079,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30720,7 +30112,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30753,7 +30145,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30786,7 +30178,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30819,7 +30211,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30852,7 +30244,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30885,7 +30277,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30918,7 +30310,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31149,7 +30541,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31182,7 +30574,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31215,7 +30607,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31248,7 +30640,7 @@
         <v>48233.80037958996</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31281,7 +30673,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31314,7 +30706,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31347,7 +30739,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31380,7 +30772,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31413,7 +30805,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31446,7 +30838,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31479,7 +30871,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32073,7 +31465,7 @@
         <v>50421.10037958997</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32304,7 +31696,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32568,7 +31960,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
